--- a/Excel/角色表.xlsx
+++ b/Excel/角色表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunshuo/Cartoon_reign/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F427DFB-4978-B54F-BD5C-0937C3AE94CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E8949E-ABE2-B84C-83E9-6D0B5327385A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,22 @@
   </si>
   <si>
     <t>防御力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯娜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小凯娜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -63,7 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +109,14 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -116,7 +140,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -133,6 +157,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -439,25 +466,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="4"/>
-    <col min="4" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="8" max="8" width="18.5" customWidth="1"/>
-    <col min="9" max="9" width="24.83203125" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="4"/>
+    <col min="5" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="9" max="9" width="18.5" customWidth="1"/>
+    <col min="10" max="10" width="24.83203125" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
+    <col min="12" max="12" width="38.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1">
+    <row r="1" spans="1:7" s="2" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -465,112 +493,129 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16">
+    <row r="2" spans="1:7" ht="16">
       <c r="A2" s="4">
         <v>-1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
         <v>5000</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>40</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>5</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16">
+    <row r="3" spans="1:7" ht="16">
       <c r="A3" s="4">
         <v>-2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4">
         <v>3000</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>20</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>5</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16">
+    <row r="4" spans="1:7" ht="16">
       <c r="A4" s="4">
         <v>-3</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4">
         <v>3000</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>20</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>5</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
-      <c r="D5" s="1"/>
+      <c r="C5" s="4"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5" s="1"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="D6" s="1"/>
+      <c r="C6" s="4"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6" s="1"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="D7" s="1"/>
+      <c r="C7" s="4"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7" s="1"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="D8" s="1"/>
+      <c r="C8" s="4"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8" s="1"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="D9" s="1"/>
+      <c r="C9" s="4"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="4"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Excel/角色表.xlsx
+++ b/Excel/角色表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunshuo/Cartoon_reign/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E8949E-ABE2-B84C-83E9-6D0B5327385A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591B56A0-DEA5-1D4B-8901-96BD93836EF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -469,7 +469,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -522,7 +522,7 @@
         <v>5000</v>
       </c>
       <c r="E2" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1">
         <v>5</v>
@@ -545,7 +545,7 @@
         <v>3000</v>
       </c>
       <c r="E3" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1">
         <v>5</v>
@@ -568,7 +568,7 @@
         <v>3000</v>
       </c>
       <c r="E4" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1">
         <v>5</v>

--- a/Excel/角色表.xlsx
+++ b/Excel/角色表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunshuo/Cartoon_reign/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591B56A0-DEA5-1D4B-8901-96BD93836EF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C4CF5D-2015-1D4B-A94A-D3B09644079B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -469,7 +469,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>

--- a/Excel/角色表.xlsx
+++ b/Excel/角色表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunshuo/Cartoon_reign/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C4CF5D-2015-1D4B-A94A-D3B09644079B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91686AEC-6DA7-BC4D-A9F3-6815ADE2F8E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,30 +48,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>防御力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Avatars/Archer.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Prefabs/Avatars/Kanna.prefab</t>
-  </si>
-  <si>
-    <t>Prefabs/Avatars/Kanna2.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男主角</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凯娜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小凯娜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓箭手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女近战</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,7 +470,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -493,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -502,7 +503,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>4</v>
@@ -516,13 +517,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="4">
         <v>5000</v>
       </c>
       <c r="E2" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F2" s="1">
         <v>5</v>
@@ -536,10 +537,10 @@
         <v>-2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D3" s="4">
         <v>3000</v>
@@ -559,16 +560,16 @@
         <v>-3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="4">
         <v>3000</v>
       </c>
       <c r="E4" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1">
         <v>5</v>

--- a/Excel/角色表.xlsx
+++ b/Excel/角色表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunshuo/Cartoon_reign/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91686AEC-6DA7-BC4D-A9F3-6815ADE2F8E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA401F43-49FA-E84D-9AD9-970C6B1AE374}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,6 +73,10 @@
   </si>
   <si>
     <t>女近战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -486,7 +490,7 @@
     <col min="12" max="12" width="38.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1">
+    <row r="1" spans="1:8" s="2" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -508,8 +512,11 @@
       <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16">
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16">
       <c r="A2" s="4">
         <v>-1</v>
       </c>
@@ -531,8 +538,11 @@
       <c r="G2" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="16">
+      <c r="H2" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16">
       <c r="A3" s="4">
         <v>-2</v>
       </c>
@@ -554,8 +564,11 @@
       <c r="G3" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="16">
+      <c r="H3" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16">
       <c r="A4" s="4">
         <v>-3</v>
       </c>
@@ -577,8 +590,11 @@
       <c r="G4" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -586,7 +602,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -594,7 +610,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -602,7 +618,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -610,7 +626,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>

--- a/Excel/角色表.xlsx
+++ b/Excel/角色表.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunshuo/Cartoon_reign/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Cartoon_reign\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA401F43-49FA-E84D-9AD9-970C6B1AE374}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="15885"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -83,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -470,24 +469,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="4"/>
-    <col min="5" max="6" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.625" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="4"/>
+    <col min="5" max="6" width="9.375" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
     <col min="9" max="9" width="18.5" customWidth="1"/>
-    <col min="10" max="10" width="24.83203125" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" customWidth="1"/>
-    <col min="12" max="12" width="38.83203125" customWidth="1"/>
+    <col min="10" max="10" width="24.875" customWidth="1"/>
+    <col min="11" max="11" width="11.375" customWidth="1"/>
+    <col min="12" max="12" width="38.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1">
@@ -516,7 +515,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16">
+    <row r="2" spans="1:8">
       <c r="A2" s="4">
         <v>-1</v>
       </c>
@@ -542,7 +541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16">
+    <row r="3" spans="1:8">
       <c r="A3" s="4">
         <v>-2</v>
       </c>
@@ -556,7 +555,7 @@
         <v>3000</v>
       </c>
       <c r="E3" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1">
         <v>5</v>
@@ -568,7 +567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16">
+    <row r="4" spans="1:8">
       <c r="A4" s="4">
         <v>-3</v>
       </c>
@@ -642,12 +641,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -656,15 +655,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/角色表.xlsx
+++ b/Excel/角色表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Cartoon_reign\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunshuo/Cartoon_reign/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55F628F-0898-2942-94F6-3F0B59974D5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="15885"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,13 +77,25 @@
   </si>
   <si>
     <t>品质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色立绘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -226,7 +239,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -259,9 +272,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -294,6 +324,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -469,27 +516,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="29.625" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="4"/>
-    <col min="5" max="6" width="9.375" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="4"/>
+    <col min="5" max="6" width="9.33203125" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
     <col min="9" max="9" width="18.5" customWidth="1"/>
-    <col min="10" max="10" width="24.875" customWidth="1"/>
-    <col min="11" max="11" width="11.375" customWidth="1"/>
-    <col min="12" max="12" width="38.875" customWidth="1"/>
+    <col min="10" max="10" width="24.83203125" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
+    <col min="12" max="12" width="38.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1">
+    <row r="1" spans="1:9" s="2" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -514,8 +561,11 @@
       <c r="H1" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16">
       <c r="A2" s="4">
         <v>-1</v>
       </c>
@@ -541,7 +591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9" ht="16">
       <c r="A3" s="4">
         <v>-2</v>
       </c>
@@ -566,8 +616,11 @@
       <c r="H3" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16">
       <c r="A4" s="4">
         <v>-3</v>
       </c>
@@ -592,8 +645,11 @@
       <c r="H4" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -601,7 +657,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -609,7 +665,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -617,7 +673,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -625,7 +681,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -641,12 +697,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -655,12 +711,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
